--- a/02. Regressions/out/Table 5.xlsx
+++ b/02. Regressions/out/Table 5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="41">
   <si>
     <t>Female</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t>45-54 años</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>treated</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>treated_pre</t>
   </si>
 </sst>
 </file>
@@ -166,346 +181,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.43931123614311218</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.43931123614311218</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0.42413157224655151</v>
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.56068879365921021</v>
+        <v>0.43931123614311218</v>
       </c>
       <c r="C2" s="1">
-        <v>0.56068879365921021</v>
+        <v>0.43931123614311218</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0.57586842775344849</v>
+        <v>0.42413157224655151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1946902722120285</v>
+        <v>0.56068879365921021</v>
       </c>
       <c r="C3" s="1">
-        <v>0.19476969540119171</v>
+        <v>0.56068879365921021</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.21882346272468567</v>
+        <v>0.57586842775344849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.31022387742996216</v>
+        <v>0.1946902722120285</v>
       </c>
       <c r="C4" s="1">
-        <v>0.3103504478931427</v>
+        <v>0.19476969540119171</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.2697213888168335</v>
+        <v>0.21882346272468567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.22857958078384399</v>
+        <v>0.31022387742996216</v>
       </c>
       <c r="C5" s="1">
-        <v>0.22867284715175629</v>
+        <v>0.3103504478931427</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.20810480415821075</v>
+        <v>0.2697213888168335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.20782186090946198</v>
+        <v>0.22857958078384399</v>
       </c>
       <c r="C6" s="1">
-        <v>0.20749866962432861</v>
+        <v>0.22867284715175629</v>
       </c>
       <c r="D6" s="1">
-        <v>0.91153794527053833</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.21161501109600067</v>
+        <v>0.20810480415821075</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1">
-        <v>0.058684393763542175</v>
+        <v>0.20782186090946198</v>
       </c>
       <c r="C7" s="1">
-        <v>0.05870833620429039</v>
+        <v>0.20749866962432861</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.91153794527053833</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0917353555560112</v>
+        <v>0.21161501109600067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.21289235353469849</v>
+        <v>0.058684393763542175</v>
       </c>
       <c r="C8" s="1">
-        <v>0.21891306340694427</v>
+        <v>0.05870833620429039</v>
       </c>
       <c r="D8" s="1">
-        <v>0.102430060505867</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.17786657810211182</v>
+        <v>0.0917353555560112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.15352813899517059</v>
+        <v>0.21289235353469849</v>
       </c>
       <c r="C9" s="1">
-        <v>0.15352813899517059</v>
+        <v>0.21891306340694427</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.102430060505867</v>
       </c>
       <c r="E9" s="1">
-        <v>0.13439901173114777</v>
+        <v>0.17786657810211182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.52849805355072021</v>
+        <v>0.15352813899517059</v>
       </c>
       <c r="C10" s="1">
-        <v>0.52247732877731323</v>
+        <v>0.15352813899517059</v>
       </c>
       <c r="D10" s="1">
-        <v>0.17840497195720673</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.59966182708740234</v>
+        <v>0.13439901173114777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.10508148372173309</v>
+        <v>0.52849805355072021</v>
       </c>
       <c r="C11" s="1">
-        <v>0.10508148372173309</v>
+        <v>0.52247732877731323</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0.17840497195720673</v>
       </c>
       <c r="E11" s="1">
-        <v>0.088072545826435089</v>
+        <v>0.59966182708740234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.03937545046210289</v>
+        <v>0.10508148372173309</v>
       </c>
       <c r="C12" s="1">
-        <v>0.03937545046210289</v>
+        <v>0.10508148372173309</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0.038979403674602509</v>
+        <v>0.088072545826435089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
-        <v>0.023440636694431305</v>
+        <v>0.03937545046210289</v>
       </c>
       <c r="C13" s="1">
-        <v>0.023440636694431305</v>
+        <v>0.03937545046210289</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02250230498611927</v>
+        <v>0.038979403674602509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
-        <v>0.038612827658653259</v>
+        <v>0.023440636694431305</v>
       </c>
       <c r="C14" s="1">
-        <v>0.038612827658653259</v>
+        <v>0.023440636694431305</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0.034521978348493576</v>
+        <v>0.02250230498611927</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>0.02528698742389679</v>
+        <v>0.038612827658653259</v>
       </c>
       <c r="C15" s="1">
-        <v>0.02528698742389679</v>
+        <v>0.038612827658653259</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.022256378084421158</v>
+        <v>0.034521978348493576</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>0.048727624118328094</v>
+        <v>0.02528698742389679</v>
       </c>
       <c r="C16" s="1">
-        <v>0.048727624118328094</v>
+        <v>0.02528698742389679</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0.044758684933185577</v>
+        <v>0.022256378084421158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
-        <v>0.70598858594894409</v>
+        <v>0.048727624118328094</v>
       </c>
       <c r="C17" s="1">
-        <v>0.69860321283340454</v>
+        <v>0.048727624118328094</v>
       </c>
       <c r="D17" s="1">
-        <v>0.071434460580348969</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.7426990270614624</v>
+        <v>0.044758684933185577</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
-        <v>0.09187605232000351</v>
+        <v>0.70598858594894409</v>
       </c>
       <c r="C18" s="1">
-        <v>0.09187605232000351</v>
+        <v>0.69860321283340454</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0.071434460580348969</v>
       </c>
       <c r="E18" s="1">
-        <v>0.083215489983558655</v>
+        <v>0.7426990270614624</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
-        <v>0.11684193462133408</v>
+        <v>0.09187605232000351</v>
       </c>
       <c r="C19" s="1">
-        <v>0.1203339472413063</v>
+        <v>0.09187605232000351</v>
       </c>
       <c r="D19" s="1">
-        <v>0.22801266610622406</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.097694434225559235</v>
+        <v>0.083215489983558655</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.11684193462133408</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.1203339472413063</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.22801266610622406</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.097694434225559235</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>0.036565788090229034</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>0.040459178388118744</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>0.023933116346597672</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>0.031632337719202042</v>
       </c>
     </row>
